--- a/data/user_dataset_updated.xlsx
+++ b/data/user_dataset_updated.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Badgelens\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231BD778-7860-4C1C-A2EF-51B9FE0FBB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19,264 +25,265 @@
     <t>user_id</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>goal_required_skills</t>
+  </si>
+  <si>
+    <t>goal_matching_badges</t>
+  </si>
+  <si>
+    <t>acquired_badges</t>
+  </si>
+  <si>
+    <t>U001</t>
+  </si>
+  <si>
+    <t>U002</t>
+  </si>
+  <si>
+    <t>U003</t>
+  </si>
+  <si>
+    <t>U004</t>
+  </si>
+  <si>
+    <t>U005</t>
+  </si>
+  <si>
+    <t>U006</t>
+  </si>
+  <si>
+    <t>U007</t>
+  </si>
+  <si>
+    <t>U008</t>
+  </si>
+  <si>
+    <t>U009</t>
+  </si>
+  <si>
+    <t>U010</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>alice@example.com</t>
+  </si>
+  <si>
+    <t>bob@example.com</t>
+  </si>
+  <si>
+    <t>charlie@example.com</t>
+  </si>
+  <si>
+    <t>david@example.com</t>
+  </si>
+  <si>
+    <t>eve@example.com</t>
+  </si>
+  <si>
+    <t>frank@example.com</t>
+  </si>
+  <si>
+    <t>grace@example.com</t>
+  </si>
+  <si>
+    <t>hank@example.com</t>
+  </si>
+  <si>
+    <t>ivy@example.com</t>
+  </si>
+  <si>
+    <t>jack@example.com</t>
+  </si>
+  <si>
+    <t>Become a Data Scientist</t>
+  </si>
+  <si>
+    <t>AI Researcher</t>
+  </si>
+  <si>
+    <t>Cloud Engineer</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst</t>
+  </si>
+  <si>
+    <t>Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>DevOps Engineer</t>
+  </si>
+  <si>
+    <t>UI/UX Designer</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>AI Ethics Specialist</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>['Python', 'SQL']</t>
+  </si>
+  <si>
+    <t>['Deep Learning', 'Python']</t>
+  </si>
+  <si>
+    <t>['AWS', 'Kubernetes']</t>
+  </si>
+  <si>
+    <t>['Networking', 'Python']</t>
+  </si>
+  <si>
+    <t>['Python', 'Data Science']</t>
+  </si>
+  <si>
+    <t>['Linux', 'Docker']</t>
+  </si>
+  <si>
+    <t>['Figma', 'Adobe XD']</t>
+  </si>
+  <si>
+    <t>['SQL', 'Big Data']</t>
+  </si>
+  <si>
+    <t>['Ethics', 'Law']</t>
+  </si>
+  <si>
+    <t>['Java', 'C++']</t>
+  </si>
+  <si>
+    <t>['Machine Learning', 'Data Analysis']</t>
+  </si>
+  <si>
+    <t>['Neural Networks', 'TensorFlow']</t>
+  </si>
+  <si>
+    <t>['Cloud Computing', 'DevOps']</t>
+  </si>
+  <si>
+    <t>['Cybersecurity', 'Ethical Hacking']</t>
+  </si>
+  <si>
+    <t>['Deep Learning', 'Reinforcement Learning']</t>
+  </si>
+  <si>
+    <t>['CI/CD', 'Kubernetes']</t>
+  </si>
+  <si>
+    <t>['User Research', 'Wireframing']</t>
+  </si>
+  <si>
+    <t>['ETL', 'Data Pipelines']</t>
+  </si>
+  <si>
+    <t>['AI Policy', 'Regulation']</t>
+  </si>
+  <si>
+    <t>['Software Development', 'OOP']</t>
+  </si>
+  <si>
+    <t>['B001', 'B002', 'B003']</t>
+  </si>
+  <si>
+    <t>['B003', 'B004', 'B005']</t>
+  </si>
+  <si>
+    <t>['B006', 'B007']</t>
+  </si>
+  <si>
+    <t>['B008', 'B009']</t>
+  </si>
+  <si>
+    <t>['B002', 'B003', 'B004']</t>
+  </si>
+  <si>
+    <t>['B007', 'B009']</t>
+  </si>
+  <si>
+    <t>['B010']</t>
+  </si>
+  <si>
+    <t>['B002', 'B006']</t>
+  </si>
+  <si>
+    <t>['B005']</t>
+  </si>
+  <si>
+    <t>['B011']</t>
+  </si>
+  <si>
+    <t>['B001']</t>
+  </si>
+  <si>
+    <t>['B003']</t>
+  </si>
+  <si>
+    <t>['B006']</t>
+  </si>
+  <si>
+    <t>['B008']</t>
+  </si>
+  <si>
+    <t>['B002']</t>
+  </si>
+  <si>
+    <t>['B007']</t>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>goal</t>
-  </si>
-  <si>
-    <t>skills</t>
-  </si>
-  <si>
-    <t>goal_required_skills</t>
-  </si>
-  <si>
-    <t>goal_matching_badges</t>
-  </si>
-  <si>
-    <t>acquired_badges</t>
-  </si>
-  <si>
-    <t>U001</t>
-  </si>
-  <si>
-    <t>U002</t>
-  </si>
-  <si>
-    <t>U003</t>
-  </si>
-  <si>
-    <t>U004</t>
-  </si>
-  <si>
-    <t>U005</t>
-  </si>
-  <si>
-    <t>U006</t>
-  </si>
-  <si>
-    <t>U007</t>
-  </si>
-  <si>
-    <t>U008</t>
-  </si>
-  <si>
-    <t>U009</t>
-  </si>
-  <si>
-    <t>U010</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Eve</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Hank</t>
-  </si>
-  <si>
-    <t>Ivy</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>alice@example.com</t>
-  </si>
-  <si>
-    <t>bob@example.com</t>
-  </si>
-  <si>
-    <t>charlie@example.com</t>
-  </si>
-  <si>
-    <t>david@example.com</t>
-  </si>
-  <si>
-    <t>eve@example.com</t>
-  </si>
-  <si>
-    <t>frank@example.com</t>
-  </si>
-  <si>
-    <t>grace@example.com</t>
-  </si>
-  <si>
-    <t>hank@example.com</t>
-  </si>
-  <si>
-    <t>ivy@example.com</t>
-  </si>
-  <si>
-    <t>jack@example.com</t>
-  </si>
-  <si>
-    <t>Become a Data Scientist</t>
-  </si>
-  <si>
-    <t>AI Researcher</t>
-  </si>
-  <si>
-    <t>Cloud Engineer</t>
-  </si>
-  <si>
-    <t>Cybersecurity Analyst</t>
-  </si>
-  <si>
-    <t>Machine Learning Engineer</t>
-  </si>
-  <si>
-    <t>DevOps Engineer</t>
-  </si>
-  <si>
-    <t>UI/UX Designer</t>
-  </si>
-  <si>
-    <t>Data Engineer</t>
-  </si>
-  <si>
-    <t>AI Ethics Specialist</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>['Python', 'SQL']</t>
-  </si>
-  <si>
-    <t>['Deep Learning', 'Python']</t>
-  </si>
-  <si>
-    <t>['AWS', 'Kubernetes']</t>
-  </si>
-  <si>
-    <t>['Networking', 'Python']</t>
-  </si>
-  <si>
-    <t>['Python', 'Data Science']</t>
-  </si>
-  <si>
-    <t>['Linux', 'Docker']</t>
-  </si>
-  <si>
-    <t>['Figma', 'Adobe XD']</t>
-  </si>
-  <si>
-    <t>['SQL', 'Big Data']</t>
-  </si>
-  <si>
-    <t>['Ethics', 'Law']</t>
-  </si>
-  <si>
-    <t>['Java', 'C++']</t>
-  </si>
-  <si>
-    <t>['Machine Learning', 'Data Analysis']</t>
-  </si>
-  <si>
-    <t>['Neural Networks', 'TensorFlow']</t>
-  </si>
-  <si>
-    <t>['Cloud Computing', 'DevOps']</t>
-  </si>
-  <si>
-    <t>['Cybersecurity', 'Ethical Hacking']</t>
-  </si>
-  <si>
-    <t>['Deep Learning', 'Reinforcement Learning']</t>
-  </si>
-  <si>
-    <t>['CI/CD', 'Kubernetes']</t>
-  </si>
-  <si>
-    <t>['User Research', 'Wireframing']</t>
-  </si>
-  <si>
-    <t>['ETL', 'Data Pipelines']</t>
-  </si>
-  <si>
-    <t>['AI Policy', 'Regulation']</t>
-  </si>
-  <si>
-    <t>['Software Development', 'OOP']</t>
-  </si>
-  <si>
-    <t>['B001', 'B002', 'B003']</t>
-  </si>
-  <si>
-    <t>['B003', 'B004', 'B005']</t>
-  </si>
-  <si>
-    <t>['B006', 'B007']</t>
-  </si>
-  <si>
-    <t>['B008', 'B009']</t>
-  </si>
-  <si>
-    <t>['B002', 'B003', 'B004']</t>
-  </si>
-  <si>
-    <t>['B007', 'B009']</t>
-  </si>
-  <si>
-    <t>['B010']</t>
-  </si>
-  <si>
-    <t>['B002', 'B006']</t>
-  </si>
-  <si>
-    <t>['B005']</t>
-  </si>
-  <si>
-    <t>['B011']</t>
-  </si>
-  <si>
-    <t>['B001']</t>
-  </si>
-  <si>
-    <t>['B003']</t>
-  </si>
-  <si>
-    <t>['B006']</t>
-  </si>
-  <si>
-    <t>['B008']</t>
-  </si>
-  <si>
-    <t>['B002']</t>
-  </si>
-  <si>
-    <t>['B007']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,8 +291,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -331,17 +345,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -379,7 +401,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -413,6 +435,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -447,9 +470,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -622,300 +646,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>68</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>69</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>70</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>61</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>71</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>62</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>72</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>63</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>73</v>
       </c>
-      <c r="H7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>64</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>74</v>
       </c>
-      <c r="H8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>65</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>75</v>
       </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>76</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/user_dataset_updated.xlsx
+++ b/data/user_dataset_updated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Badgelens\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coolc\Documents\BadgeLens\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231BD778-7860-4C1C-A2EF-51B9FE0FBB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD60CA55-35C3-49A0-8368-56435CE7235E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,9 +361,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,9 +401,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,9 +436,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,9 +488,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -650,16 +684,20 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="7" width="34.3984375" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -711,7 +749,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -737,7 +775,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -763,7 +801,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -789,7 +827,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -815,7 +853,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -841,7 +879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -867,7 +905,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -893,7 +931,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -919,7 +957,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>16</v>
       </c>
